--- a/R_C14_rates calculation/0_data_used/MD_PhotoAdapt_Biomass_Rates_17MAR20_v1.1.xlsx
+++ b/R_C14_rates calculation/0_data_used/MD_PhotoAdapt_Biomass_Rates_17MAR20_v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deniseong/Documents/GitHub/TAN1810_C14/R_C14_rates calculation/0_data_used/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEC6203-E1D5-3D4E-8CF0-4FC7B0B571F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D14D024-31B9-6540-ACC6-19C77BF94C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36420" yWindow="-100" windowWidth="30120" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36420" yWindow="-100" windowWidth="30120" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary of PhotoAdaption " sheetId="19" r:id="rId1"/>
@@ -750,8 +750,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -857,7 +857,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -881,10 +881,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -914,10 +914,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1185,7 +1181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="M116" sqref="M116"/>
     </sheetView>
   </sheetViews>
@@ -14814,7 +14810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
